--- a/1. data/return by age time series.xlsx
+++ b/1. data/return by age time series.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brownn\Documents\WCVI\Area 23 stocks\Sockeye\A23-Sockeye-preseason-forecast\01-input data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brownn\Documents\WCVI\Barkley-Sk-CSAS\1. data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5AF66C-F413-4F84-BC85-F779E8C52812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB61B266-A4A9-4416-8D3D-E20920168B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Somass" sheetId="1" r:id="rId1"/>
+    <sheet name="Henderson" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="37">
   <si>
     <t>GCL</t>
   </si>
@@ -61,18 +62,121 @@
   <si>
     <t>return_year</t>
   </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>age_sample_size</t>
+  </si>
+  <si>
+    <t>age_32</t>
+  </si>
+  <si>
+    <t>age_42</t>
+  </si>
+  <si>
+    <t>age_52</t>
+  </si>
+  <si>
+    <t>age_62</t>
+  </si>
+  <si>
+    <t>age_43</t>
+  </si>
+  <si>
+    <t>age_53</t>
+  </si>
+  <si>
+    <t>age_63</t>
+  </si>
+  <si>
+    <t>sample_type</t>
+  </si>
+  <si>
+    <t>Esc./Clemens</t>
+  </si>
+  <si>
+    <t>Esc./Clemens*</t>
+  </si>
+  <si>
+    <t>Esc./Brdstk</t>
+  </si>
+  <si>
+    <t>Esc./Fence</t>
+  </si>
+  <si>
+    <t>Esc./Beach</t>
+  </si>
+  <si>
+    <t>EscOct 28-29</t>
+  </si>
+  <si>
+    <t>Esc Oct 29-Nov12</t>
+  </si>
+  <si>
+    <t>Hend/FN food Jul8-Aug15</t>
+  </si>
+  <si>
+    <t>Hend/FN food Jul21-Aug30</t>
+  </si>
+  <si>
+    <t>Hend Fence</t>
+  </si>
+  <si>
+    <t>Hend/FN food Jul23-Aug18</t>
+  </si>
+  <si>
+    <t>Clemens Esc</t>
+  </si>
+  <si>
+    <t>Hend fence samples Jul8-Sep3</t>
+  </si>
+  <si>
+    <t>Hend/FN food Jun19-Aug23</t>
+  </si>
+  <si>
+    <t>Hend/FN food Jul2-Aug12</t>
+  </si>
+  <si>
+    <t>Hend/FN food Jul3-Aug2</t>
+  </si>
+  <si>
+    <t>Fence sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fence sample </t>
+  </si>
+  <si>
+    <t>Catch</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,15 +196,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{3FF1066F-7D2F-4720-A778-572A39C7D343}"/>
+    <cellStyle name="Percent 2" xfId="3" xr:uid="{90CEE5E4-C988-4334-9D6A-5172AE8A7D76}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -380,16 +493,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F565"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="8.88671875" style="1"/>
+    <col min="3" max="4" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -409,7 +522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -429,7 +542,7 @@
         <v>18227.413567931726</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -449,7 +562,7 @@
         <v>331492.68240361265</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -469,7 +582,7 @@
         <v>2584.2883441252047</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -489,7 +602,7 @@
         <v>332408.81384317484</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -509,7 +622,7 @@
         <v>74698.732955407017</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -529,7 +642,7 @@
         <v>34892.425560700605</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -549,7 +662,7 @@
         <v>7113.0806653910067</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -569,7 +682,7 @@
         <v>126531.3399274906</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -589,7 +702,7 @@
         <v>960.47621643166997</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -609,7 +722,7 @@
         <v>126329.45533394575</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -629,7 +742,7 @@
         <v>28291.348265977649</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -649,7 +762,7 @@
         <v>13223.83785342181</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -669,7 +782,7 @@
         <v>4852.7106408946993</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -689,7 +802,7 @@
         <v>52626.006382767264</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -709,7 +822,7 @@
         <v>505.21348802497369</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -729,7 +842,7 @@
         <v>66610.574208923455</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -749,7 +862,7 @@
         <v>13917.228747380421</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -769,7 +882,7 @@
         <v>7019.2984317250712</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -789,7 +902,7 @@
         <v>1005.481013342662</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -809,7 +922,7 @@
         <v>18503.403639903867</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -829,7 +942,7 @@
         <v>90.462079069437266</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -849,7 +962,7 @@
         <v>21792.340945255241</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -869,7 +982,7 @@
         <v>4069.5250016077166</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -889,7 +1002,7 @@
         <v>2243.4524977384435</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -909,7 +1022,7 @@
         <v>14151.589400801147</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -929,7 +1042,7 @@
         <v>231888.977058519</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -949,7 +1062,7 @@
         <v>1935.2646319902863</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -969,7 +1082,7 @@
         <v>218523.46892550075</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -989,7 +1102,7 @@
         <v>51329.6267721029</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1122,7 @@
         <v>23134.354909749345</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1029,7 +1142,7 @@
         <v>4937.6903790714396</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -1049,7 +1162,7 @@
         <v>66254.468675914773</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -1069,7 +1182,7 @@
         <v>569.48616137572492</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1089,7 +1202,7 @@
         <v>63428.321923659096</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1109,7 +1222,7 @@
         <v>14820.10041616484</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -1129,7 +1242,7 @@
         <v>6638.6531875252658</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1262,7 @@
         <v>8741.8233709328597</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +1282,7 @@
         <v>171449.11775562481</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1189,7 +1302,7 @@
         <v>1184.3838459816957</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1209,7 +1322,7 @@
         <v>182370.93078170207</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1229,7 +1342,7 @@
         <v>39294.847379277948</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1249,7 +1362,7 @@
         <v>18815.152777425268</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -1269,7 +1382,7 @@
         <v>4982.8384970879915</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -1289,7 +1402,7 @@
         <v>93651.800190535374</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -1309,7 +1422,7 @@
         <v>638.73687074028066</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -1329,7 +1442,7 @@
         <v>96968.471929796026</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -1349,7 +1462,7 @@
         <v>20597.095631125045</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -1369,7 +1482,7 @@
         <v>10094.054249890149</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1389,7 +1502,7 @@
         <v>12813.561735348043</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -1409,7 +1522,7 @@
         <v>230622.52963454736</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -1429,7 +1542,7 @@
         <v>1720.1413988234976</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -1449,7 +1562,7 @@
         <v>236515.56049280643</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -1469,7 +1582,7 @@
         <v>51184.109413519269</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -1489,7 +1602,7 @@
         <v>24683.485982417478</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -1509,7 +1622,7 @@
         <v>8662.5958500839442</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -1529,7 +1642,7 @@
         <v>150391.81703211847</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -1549,7 +1662,7 @@
         <v>1184.0173440890558</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -1569,7 +1682,7 @@
         <v>153992.18325885473</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -1589,7 +1702,7 @@
         <v>33330.821564507001</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -1609,7 +1722,7 @@
         <v>16017.494274121766</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -1629,7 +1742,7 @@
         <v>4385.4875994898357</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -1649,7 +1762,7 @@
         <v>72183.967579948905</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -1669,7 +1782,7 @@
         <v>552.37615901682693</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -1689,7 +1802,7 @@
         <v>82876.963446566646</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -1709,7 +1822,7 @@
         <v>16633.421923619157</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -1729,7 +1842,7 @@
         <v>8453.4469915325135</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -1749,7 +1862,7 @@
         <v>6316.7706829668077</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -1769,7 +1882,7 @@
         <v>103879.46141404404</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -1789,7 +1902,7 @@
         <v>633.38527389943499</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -1809,7 +1922,7 @@
         <v>111329.05107660916</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -1829,7 +1942,7 @@
         <v>23055.820157082482</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -1849,7 +1962,7 @@
         <v>11338.875358352332</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -1869,7 +1982,7 @@
         <v>11957.455497881961</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -1889,7 +2002,7 @@
         <v>214344.75044877784</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -1909,7 +2022,7 @@
         <v>1638.863971317028</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -1929,7 +2042,7 @@
         <v>211331.51091890014</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -1949,7 +2062,7 @@
         <v>46635.637165848646</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -1969,7 +2082,7 @@
         <v>22120.085478397494</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -1989,7 +2102,7 @@
         <v>9291.2884678487244</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1</v>
       </c>
@@ -2009,7 +2122,7 @@
         <v>158419.11006163663</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1</v>
       </c>
@@ -2029,7 +2142,7 @@
         <v>1273.1328333784609</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1</v>
       </c>
@@ -2049,7 +2162,7 @@
         <v>156036.11502090702</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -2069,7 +2182,7 @@
         <v>34526.176156923604</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -2089,7 +2202,7 @@
         <v>16124.428130304044</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -2109,7 +2222,7 @@
         <v>3922.9156707572961</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -2129,7 +2242,7 @@
         <v>163459.41554513111</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -2149,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -2169,7 +2282,7 @@
         <v>297781.30519335077</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -2189,7 +2302,7 @@
         <v>40725.778978910595</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -2209,7 +2322,7 @@
         <v>12945.3532927089</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1</v>
       </c>
@@ -2229,7 +2342,7 @@
         <v>7251.1819492944051</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -2249,7 +2362,7 @@
         <v>211701.84854503811</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -2269,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -2289,7 +2402,7 @@
         <v>149451.56139251011</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -2309,7 +2422,7 @@
         <v>32904.42057291697</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1</v>
       </c>
@@ -2329,7 +2442,7 @@
         <v>19640.218859381792</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -2349,7 +2462,7 @@
         <v>9872.6705855467499</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -2369,7 +2482,7 @@
         <v>89970.55921694405</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -2389,7 +2502,7 @@
         <v>5714.3393546139087</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -2409,7 +2522,7 @@
         <v>165580.93702823977</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -2429,7 +2542,7 @@
         <v>17765.096578689783</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -2449,7 +2562,7 @@
         <v>28696.315640700679</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1</v>
       </c>
@@ -2469,7 +2582,7 @@
         <v>11420.06511027717</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -2489,7 +2602,7 @@
         <v>68116.864308526405</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1</v>
       </c>
@@ -2509,7 +2622,7 @@
         <v>967.96298444808463</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1</v>
       </c>
@@ -2529,7 +2642,7 @@
         <v>49948.285482476509</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -2549,7 +2662,7 @@
         <v>7163.145773291184</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -2569,7 +2682,7 @@
         <v>2352.6572232188714</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -2589,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -2609,7 +2722,7 @@
         <v>2775.3252074331208</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -2629,7 +2742,7 @@
         <v>17.530590798671945</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -2649,7 +2762,7 @@
         <v>6503.54405407578</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -2669,7 +2782,7 @@
         <v>540.50570289637517</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -2689,7 +2802,7 @@
         <v>478.83595773052991</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -2709,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -2729,7 +2842,7 @@
         <v>10278.088253051208</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1</v>
       </c>
@@ -2749,7 +2862,7 @@
         <v>25.751631423550275</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1</v>
       </c>
@@ -2769,7 +2882,7 @@
         <v>32773.893960424102</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1</v>
       </c>
@@ -2789,7 +2902,7 @@
         <v>2747.8839557221618</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1</v>
       </c>
@@ -2809,7 +2922,7 @@
         <v>776.64068644450549</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -2829,7 +2942,7 @@
         <v>3621.2632530121391</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -2849,7 +2962,7 @@
         <v>61930.977722131414</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -2869,7 +2982,7 @@
         <v>1449.1517988260325</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -2889,7 +3002,7 @@
         <v>3217.0997086238362</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -2909,7 +3022,7 @@
         <v>7827.2085275963282</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -2929,7 +3042,7 @@
         <v>4971.7011284687915</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1</v>
       </c>
@@ -2949,7 +3062,7 @@
         <v>37217.215401371708</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1</v>
       </c>
@@ -2969,7 +3082,7 @@
         <v>97145.531051448546</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1</v>
       </c>
@@ -2989,7 +3102,7 @@
         <v>4534.6829452482225</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1</v>
       </c>
@@ -3009,7 +3122,7 @@
         <v>14191.095490120413</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -3029,7 +3142,7 @@
         <v>17854.447141101922</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1</v>
       </c>
@@ -3049,7 +3162,7 @@
         <v>422.62583205061082</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -3069,7 +3182,7 @@
         <v>3339.2018304202261</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -3089,7 +3202,7 @@
         <v>57344.145387657671</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -3109,7 +3222,7 @@
         <v>502.61895808317564</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -3129,7 +3242,7 @@
         <v>61105.90566759176</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -3149,7 +3262,7 @@
         <v>21668.853295091703</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -3169,7 +3282,7 @@
         <v>2872.2992921317077</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1</v>
       </c>
@@ -3189,7 +3302,7 @@
         <v>2708.7083493931427</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1</v>
       </c>
@@ -3209,7 +3322,7 @@
         <v>97386.531994692457</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1</v>
       </c>
@@ -3229,7 +3342,7 @@
         <v>552.14185157979659</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1</v>
       </c>
@@ -3249,7 +3362,7 @@
         <v>43184.299495687977</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1</v>
       </c>
@@ -3269,7 +3382,7 @@
         <v>31820.729954511426</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1</v>
       </c>
@@ -3289,7 +3402,7 @@
         <v>2618.1555231589746</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -3309,7 +3422,7 @@
         <v>2129.4465859840652</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -3329,7 +3442,7 @@
         <v>9055.2957087368941</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -3349,7 +3462,7 @@
         <v>181.73083811299404</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -3369,7 +3482,7 @@
         <v>2828.4086103025029</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -3389,7 +3502,7 @@
         <v>278.78641360252601</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -3409,7 +3522,7 @@
         <v>450.33271852366653</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1</v>
       </c>
@@ -3429,7 +3542,7 @@
         <v>1552.3676342454896</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -3449,7 +3562,7 @@
         <v>7479.9448128556478</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1</v>
       </c>
@@ -3469,7 +3582,7 @@
         <v>84.419761887005961</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1</v>
       </c>
@@ -3489,7 +3602,7 @@
         <v>3217.9618103574685</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1</v>
       </c>
@@ -3509,7 +3622,7 @@
         <v>227.68088345629752</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1</v>
       </c>
@@ -3529,7 +3642,7 @@
         <v>841.09559693544384</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -3549,7 +3662,7 @@
         <v>831.82978867327506</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -3569,7 +3682,7 @@
         <v>8379.4092924255619</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -3589,7 +3702,7 @@
         <v>49.821758822385476</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -3609,7 +3722,7 @@
         <v>4675.6603716140271</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -3629,7 +3742,7 @@
         <v>4967.8457685769263</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -3649,7 +3762,7 @@
         <v>448.63676676394709</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1</v>
       </c>
@@ -3669,7 +3782,7 @@
         <v>1322.5880632448734</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -3689,7 +3802,7 @@
         <v>10410.181913696766</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1</v>
       </c>
@@ -3709,7 +3822,7 @@
         <v>107.39954213459066</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1</v>
       </c>
@@ -3729,7 +3842,7 @@
         <v>3753.3815584724898</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -3749,7 +3862,7 @@
         <v>1484.6195744939</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1</v>
       </c>
@@ -3769,7 +3882,7 @@
         <v>157.62560108125501</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -3789,7 +3902,7 @@
         <v>15296.15967912087</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -3809,7 +3922,7 @@
         <v>677657.72402788326</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -3829,7 +3942,7 @@
         <v>8721.4201199601648</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -3849,7 +3962,7 @@
         <v>89351.274511664917</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -3869,7 +3982,7 @@
         <v>10247.239765973771</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -3889,7 +4002,7 @@
         <v>6240.657632511703</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1</v>
       </c>
@@ -3909,7 +4022,7 @@
         <v>14398.293124016027</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1</v>
       </c>
@@ -3929,7 +4042,7 @@
         <v>251356.72111178871</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1</v>
       </c>
@@ -3949,7 +4062,7 @@
         <v>4639.3576000601633</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1</v>
       </c>
@@ -3969,7 +4082,7 @@
         <v>64338.952803483386</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1</v>
       </c>
@@ -3989,7 +4102,7 @@
         <v>24037.762423810709</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1</v>
       </c>
@@ -4009,7 +4122,7 @@
         <v>3826.4371997262829</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -4029,7 +4142,7 @@
         <v>4643.1484949014221</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -4049,7 +4162,7 @@
         <v>63887.70220078023</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -4069,7 +4182,7 @@
         <v>1239.2002443851643</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -4089,7 +4202,7 @@
         <v>77806.823939628885</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -4109,7 +4222,7 @@
         <v>30397.652570993756</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -4129,7 +4242,7 @@
         <v>580.30600602523396</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1</v>
       </c>
@@ -4149,7 +4262,7 @@
         <v>10211.563068780952</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1</v>
       </c>
@@ -4169,7 +4282,7 @@
         <v>184533.24036832617</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1</v>
       </c>
@@ -4189,7 +4302,7 @@
         <v>1784.9882158538362</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1</v>
       </c>
@@ -4209,7 +4322,7 @@
         <v>142127.91873875455</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1</v>
       </c>
@@ -4229,7 +4342,7 @@
         <v>45426.727235972932</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1</v>
       </c>
@@ -4249,7 +4362,7 @@
         <v>8258.8755810290222</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>0</v>
       </c>
@@ -4269,7 +4382,7 @@
         <v>9557.4603031532606</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -4289,7 +4402,7 @@
         <v>145624.29290052608</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>0</v>
       </c>
@@ -4309,7 +4422,7 @@
         <v>4630.0372042710314</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -4329,7 +4442,7 @@
         <v>219156.55705535915</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>0</v>
       </c>
@@ -4349,7 +4462,7 @@
         <v>41702.758793559049</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>0</v>
       </c>
@@ -4369,7 +4482,7 @@
         <v>11752.110271693773</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1</v>
       </c>
@@ -4389,7 +4502,7 @@
         <v>9414.942774507088</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1</v>
       </c>
@@ -4409,7 +4522,7 @@
         <v>157728.35165002686</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1</v>
       </c>
@@ -4429,7 +4542,7 @@
         <v>2608.5796141692022</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1</v>
       </c>
@@ -4449,7 +4562,7 @@
         <v>127583.52170839247</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1</v>
       </c>
@@ -4469,7 +4582,7 @@
         <v>31197.268389303037</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1</v>
       </c>
@@ -4489,7 +4602,7 @@
         <v>19674.119335038991</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>0</v>
       </c>
@@ -4509,7 +4622,7 @@
         <v>59.937751656536363</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -4529,7 +4642,7 @@
         <v>22570.150663303688</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>0</v>
       </c>
@@ -4549,7 +4662,7 @@
         <v>12.717102554238107</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -4569,7 +4682,7 @@
         <v>52914.027846697099</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>0</v>
       </c>
@@ -4589,7 +4702,7 @@
         <v>6167.2112925714964</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -4609,7 +4722,7 @@
         <v>15628.914827420229</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1</v>
       </c>
@@ -4629,7 +4742,7 @@
         <v>367.19685618660088</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1</v>
       </c>
@@ -4649,7 +4762,7 @@
         <v>33811.061244375509</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1</v>
       </c>
@@ -4669,7 +4782,7 @@
         <v>16.694662151644245</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1</v>
       </c>
@@ -4689,7 +4802,7 @@
         <v>36023.909835050967</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1</v>
       </c>
@@ -4709,7 +4822,7 @@
         <v>9664.2933969973674</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1</v>
       </c>
@@ -4729,7 +4842,7 @@
         <v>2136.8845210346039</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>0</v>
       </c>
@@ -4749,7 +4862,7 @@
         <v>865.02303146035422</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>0</v>
       </c>
@@ -4769,7 +4882,7 @@
         <v>1322.2321467596173</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>0</v>
       </c>
@@ -4789,7 +4902,7 @@
         <v>246.76770633396004</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>0</v>
       </c>
@@ -4809,7 +4922,7 @@
         <v>12516.336862628499</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -4829,7 +4942,7 @@
         <v>650.53286444681021</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>0</v>
       </c>
@@ -4849,7 +4962,7 @@
         <v>2324.4048202753288</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1</v>
       </c>
@@ -4869,7 +4982,7 @@
         <v>344.05955060935412</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1</v>
       </c>
@@ -4889,7 +5002,7 @@
         <v>538.72587723692038</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1</v>
       </c>
@@ -4909,7 +5022,7 @@
         <v>165.49477391066304</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1</v>
       </c>
@@ -4929,7 +5042,7 @@
         <v>10608.7169084712</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1</v>
       </c>
@@ -4949,7 +5062,7 @@
         <v>2.9890651801029158</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1</v>
       </c>
@@ -4969,7 +5082,7 @@
         <v>861.72059436785958</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -4989,7 +5102,7 @@
         <v>321.63665818847613</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>0</v>
       </c>
@@ -5009,7 +5122,7 @@
         <v>19571.124797271888</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>0</v>
       </c>
@@ -5029,7 +5142,7 @@
         <v>17.246000000000002</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>0</v>
       </c>
@@ -5049,7 +5162,7 @@
         <v>336.61647100528398</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>0</v>
       </c>
@@ -5069,7 +5182,7 @@
         <v>6479.6878317177006</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>0</v>
       </c>
@@ -5089,7 +5202,7 @@
         <v>146.732</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1</v>
       </c>
@@ -5109,7 +5222,7 @@
         <v>485.18920621830341</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1</v>
       </c>
@@ -5129,7 +5242,7 @@
         <v>26771.592829846762</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1</v>
       </c>
@@ -5149,7 +5262,7 @@
         <v>188.90300000000002</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1</v>
       </c>
@@ -5169,7 +5282,7 @@
         <v>530.36539340149568</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1</v>
       </c>
@@ -5189,7 +5302,7 @@
         <v>5778.4188123500962</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1</v>
       </c>
@@ -5209,7 +5322,7 @@
         <v>57.486999999999995</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>0</v>
       </c>
@@ -5229,7 +5342,7 @@
         <v>97.502883519845682</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>0</v>
       </c>
@@ -5249,7 +5362,7 @@
         <v>49495.205012346581</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>0</v>
       </c>
@@ -5269,7 +5382,7 @@
         <v>617.07013830971096</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>0</v>
       </c>
@@ -5289,7 +5402,7 @@
         <v>34675.987504774654</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>0</v>
       </c>
@@ -5309,7 +5422,7 @@
         <v>6047.1192645228984</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>0</v>
       </c>
@@ -5329,7 +5442,7 @@
         <v>6347.7556833558338</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1</v>
       </c>
@@ -5349,7 +5462,7 @@
         <v>2866.6510499911519</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1</v>
       </c>
@@ -5369,7 +5482,7 @@
         <v>21895.422909504425</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1</v>
       </c>
@@ -5389,7 +5502,7 @@
         <v>175.69455715983608</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1</v>
       </c>
@@ -5409,7 +5522,7 @@
         <v>17629.713549389595</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1</v>
       </c>
@@ -5429,7 +5542,7 @@
         <v>1895.9665119371009</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1</v>
       </c>
@@ -5449,7 +5562,7 @@
         <v>1226.9109351883744</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>0</v>
       </c>
@@ -5469,7 +5582,7 @@
         <v>4878.8713759608654</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>0</v>
       </c>
@@ -5489,7 +5602,7 @@
         <v>21423.228621336257</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>0</v>
       </c>
@@ -5509,7 +5622,7 @@
         <v>78.661450627454968</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>0</v>
       </c>
@@ -5529,7 +5642,7 @@
         <v>68630.619154880085</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>0</v>
       </c>
@@ -5549,7 +5662,7 @@
         <v>30343.273770049575</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>0</v>
       </c>
@@ -5569,7 +5682,7 @@
         <v>7254.6197592413628</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1</v>
       </c>
@@ -5589,7 +5702,7 @@
         <v>4231.1147092942192</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1</v>
       </c>
@@ -5609,7 +5722,7 @@
         <v>26779.747408948784</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1</v>
       </c>
@@ -5629,7 +5742,7 @@
         <v>38.763634287629955</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1</v>
       </c>
@@ -5649,7 +5762,7 @@
         <v>40133.30895769503</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1</v>
       </c>
@@ -5669,7 +5782,7 @@
         <v>3183.0024543966538</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1</v>
       </c>
@@ -5689,7 +5802,7 @@
         <v>954.51285213324832</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>0</v>
       </c>
@@ -5709,7 +5822,7 @@
         <v>796.38982757352926</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>0</v>
       </c>
@@ -5729,7 +5842,7 @@
         <v>14523.278234305888</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>0</v>
       </c>
@@ -5749,7 +5862,7 @@
         <v>295.03658045309834</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>0</v>
       </c>
@@ -5769,7 +5882,7 @@
         <v>29747.905867875084</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>0</v>
       </c>
@@ -5789,7 +5902,7 @@
         <v>5869.6727564367684</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>0</v>
       </c>
@@ -5809,7 +5922,7 @@
         <v>7403.5774247271083</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1</v>
       </c>
@@ -5829,7 +5942,7 @@
         <v>752.4861724264706</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1</v>
       </c>
@@ -5849,7 +5962,7 @@
         <v>28885.040765694099</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1</v>
       </c>
@@ -5869,7 +5982,7 @@
         <v>255.76941954690156</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1</v>
       </c>
@@ -5889,7 +6002,7 @@
         <v>20064.459132124935</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1</v>
       </c>
@@ -5909,7 +6022,7 @@
         <v>5438.168243563232</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1</v>
       </c>
@@ -5929,7 +6042,7 @@
         <v>515.28357527289188</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>0</v>
       </c>
@@ -5949,7 +6062,7 @@
         <v>437.8976001115044</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>0</v>
       </c>
@@ -5969,7 +6082,7 @@
         <v>4665.3744092713168</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>0</v>
       </c>
@@ -5989,7 +6102,7 @@
         <v>998.99816167946699</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>0</v>
       </c>
@@ -6009,7 +6122,7 @@
         <v>24916.409809955632</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>0</v>
       </c>
@@ -6029,7 +6142,7 @@
         <v>1281.9739579182469</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>0</v>
       </c>
@@ -6049,7 +6162,7 @@
         <v>4812.4107178675113</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1</v>
       </c>
@@ -6069,7 +6182,7 @@
         <v>1252.7532179481204</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1</v>
       </c>
@@ -6089,7 +6202,7 @@
         <v>20022.529311673607</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1</v>
       </c>
@@ -6109,7 +6222,7 @@
         <v>751.28448354502973</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1</v>
       </c>
@@ -6129,7 +6242,7 @@
         <v>41657.174886346649</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1</v>
       </c>
@@ -6149,7 +6262,7 @@
         <v>784.16794275923769</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1</v>
       </c>
@@ -6169,7 +6282,7 @@
         <v>3328.6148791409746</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>0</v>
       </c>
@@ -6189,7 +6302,7 @@
         <v>1587.4299488160375</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>0</v>
       </c>
@@ -6209,7 +6322,7 @@
         <v>65710.654324710893</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>0</v>
       </c>
@@ -6229,7 +6342,7 @@
         <v>314.77253406180228</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>0</v>
       </c>
@@ -6249,7 +6362,7 @@
         <v>1323.6694062501319</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>0</v>
       </c>
@@ -6269,7 +6382,7 @@
         <v>43966.117392341985</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>0</v>
       </c>
@@ -6289,7 +6402,7 @@
         <v>961.33871535661797</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1</v>
       </c>
@@ -6309,7 +6422,7 @@
         <v>5048.7716062315694</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1</v>
       </c>
@@ -6329,7 +6442,7 @@
         <v>73008.549599768477</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1</v>
       </c>
@@ -6349,7 +6462,7 @@
         <v>4.8787024973375486</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1</v>
       </c>
@@ -6369,7 +6482,7 @@
         <v>18113.705746855834</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1</v>
       </c>
@@ -6389,7 +6502,7 @@
         <v>18697.044065671569</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1</v>
       </c>
@@ -6409,7 +6522,7 @@
         <v>2999.9884916372725</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>0</v>
       </c>
@@ -6429,7 +6542,7 @@
         <v>697.27767021158718</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>0</v>
       </c>
@@ -6449,7 +6562,7 @@
         <v>99442.852682730387</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>0</v>
       </c>
@@ -6469,7 +6582,7 @@
         <v>1173.0695409837119</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>0</v>
       </c>
@@ -6489,7 +6602,7 @@
         <v>162738.96235641695</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>0</v>
       </c>
@@ -6509,7 +6622,7 @@
         <v>66507.079025127154</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>0</v>
       </c>
@@ -6529,7 +6642,7 @@
         <v>54032.155994214729</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1</v>
       </c>
@@ -6549,7 +6662,7 @@
         <v>1682.0978948766754</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1</v>
       </c>
@@ -6569,7 +6682,7 @@
         <v>142464.23203516952</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1</v>
       </c>
@@ -6589,7 +6702,7 @@
         <v>295.98434093559592</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1</v>
       </c>
@@ -6609,7 +6722,7 @@
         <v>45593.678928561691</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1</v>
       </c>
@@ -6629,7 +6742,7 @@
         <v>20944.229492483028</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1</v>
       </c>
@@ -6649,7 +6762,7 @@
         <v>972.16761860065185</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>0</v>
       </c>
@@ -6669,7 +6782,7 @@
         <v>568.90703411065294</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>0</v>
       </c>
@@ -6689,7 +6802,7 @@
         <v>124155.70155979836</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>0</v>
       </c>
@@ -6709,7 +6822,7 @@
         <v>971.72492376117179</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>0</v>
       </c>
@@ -6729,7 +6842,7 @@
         <v>91905.965089321646</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>0</v>
       </c>
@@ -6749,7 +6862,7 @@
         <v>35120.311983282641</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>0</v>
       </c>
@@ -6769,7 +6882,7 @@
         <v>23894.055712771296</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1</v>
       </c>
@@ -6789,7 +6902,7 @@
         <v>1108.889939862305</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1</v>
       </c>
@@ -6809,7 +6922,7 @@
         <v>106433.34147866686</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1</v>
       </c>
@@ -6829,7 +6942,7 @@
         <v>154.65594262284915</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1</v>
       </c>
@@ -6849,7 +6962,7 @@
         <v>130174.57088742765</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1</v>
       </c>
@@ -6869,7 +6982,7 @@
         <v>13035.449499959594</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1</v>
       </c>
@@ -6889,7 +7002,7 @@
         <v>3580.7978290925048</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>0</v>
       </c>
@@ -6909,7 +7022,7 @@
         <v>304.68981942296449</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>0</v>
       </c>
@@ -6929,7 +7042,7 @@
         <v>17500.598443566549</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>0</v>
       </c>
@@ -6949,7 +7062,7 @@
         <v>18.33165</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>0</v>
       </c>
@@ -6969,7 +7082,7 @@
         <v>145274.02627434127</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>0</v>
       </c>
@@ -6989,7 +7102,7 @@
         <v>20068.227997119902</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>0</v>
       </c>
@@ -7009,7 +7122,7 @@
         <v>19220.81076589206</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1</v>
       </c>
@@ -7029,7 +7142,7 @@
         <v>1201.2245758151305</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1</v>
       </c>
@@ -7049,7 +7162,7 @@
         <v>34425.659299213934</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1</v>
       </c>
@@ -7069,7 +7182,7 @@
         <v>18.33165</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1</v>
       </c>
@@ -7089,7 +7202,7 @@
         <v>85896.83921053134</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1</v>
       </c>
@@ -7109,7 +7222,7 @@
         <v>6443.7902503512059</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1</v>
       </c>
@@ -7129,7 +7242,7 @@
         <v>4052.6361637456357</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>0</v>
       </c>
@@ -7149,7 +7262,7 @@
         <v>480.61043831212152</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>0</v>
       </c>
@@ -7169,7 +7282,7 @@
         <v>30220.837606119581</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>0</v>
       </c>
@@ -7189,7 +7302,7 @@
         <v>1005.7118340031167</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>0</v>
       </c>
@@ -7209,7 +7322,7 @@
         <v>15990.213345840652</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>0</v>
       </c>
@@ -7229,7 +7342,7 @@
         <v>3099.5419291183157</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>0</v>
       </c>
@@ -7249,7 +7362,7 @@
         <v>12510.000953625389</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1</v>
       </c>
@@ -7269,7 +7382,7 @@
         <v>1369.1531471031712</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1</v>
       </c>
@@ -7289,7 +7402,7 @@
         <v>16427.753905219186</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1</v>
       </c>
@@ -7309,7 +7422,7 @@
         <v>117.6247169763615</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1</v>
       </c>
@@ -7329,7 +7442,7 @@
         <v>23043.613908530915</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1</v>
       </c>
@@ -7349,7 +7462,7 @@
         <v>602.54208243791436</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1</v>
       </c>
@@ -7369,7 +7482,7 @@
         <v>176.77750554236542</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>0</v>
       </c>
@@ -7389,7 +7502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>0</v>
       </c>
@@ -7409,7 +7522,7 @@
         <v>13083.871099241469</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>0</v>
       </c>
@@ -7429,7 +7542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>0</v>
       </c>
@@ -7449,7 +7562,7 @@
         <v>13093.314742243656</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>0</v>
       </c>
@@ -7469,7 +7582,7 @@
         <v>33532.27540589709</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>0</v>
       </c>
@@ -7489,7 +7602,7 @@
         <v>1578.3062111276001</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1</v>
       </c>
@@ -7509,7 +7622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1</v>
       </c>
@@ -7529,7 +7642,7 @@
         <v>20176.164530200742</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1</v>
       </c>
@@ -7549,7 +7662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1</v>
       </c>
@@ -7569,7 +7682,7 @@
         <v>6639.6825738575444</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1</v>
       </c>
@@ -7589,7 +7702,7 @@
         <v>1440.1411144019357</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1</v>
       </c>
@@ -7609,7 +7722,7 @@
         <v>659.72972302996163</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>0</v>
       </c>
@@ -7629,7 +7742,7 @@
         <v>105.1449945948934</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>0</v>
       </c>
@@ -7649,7 +7762,7 @@
         <v>380.8363054906302</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>0</v>
       </c>
@@ -7669,7 +7782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>0</v>
       </c>
@@ -7689,7 +7802,7 @@
         <v>2881.5164566603262</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>0</v>
       </c>
@@ -7709,7 +7822,7 @@
         <v>202.93189468473059</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>0</v>
       </c>
@@ -7729,7 +7842,7 @@
         <v>1432.8745014121466</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1</v>
       </c>
@@ -7749,7 +7862,7 @@
         <v>62.634792639149161</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1</v>
       </c>
@@ -7769,7 +7882,7 @@
         <v>433.2519983024485</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1</v>
       </c>
@@ -7789,7 +7902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1</v>
       </c>
@@ -7809,7 +7922,7 @@
         <v>3547.2270239725176</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1</v>
       </c>
@@ -7829,7 +7942,7 @@
         <v>440.19688782117959</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1</v>
       </c>
@@ -7849,7 +7962,7 @@
         <v>272.38514442197959</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>0</v>
       </c>
@@ -7869,7 +7982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>0</v>
       </c>
@@ -7889,7 +8002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>0</v>
       </c>
@@ -7909,7 +8022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>0</v>
       </c>
@@ -7929,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>0</v>
       </c>
@@ -7949,7 +8062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>0</v>
       </c>
@@ -7969,7 +8082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1</v>
       </c>
@@ -7989,7 +8102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1</v>
       </c>
@@ -8009,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1</v>
       </c>
@@ -8029,7 +8142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1</v>
       </c>
@@ -8049,7 +8162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1</v>
       </c>
@@ -8069,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1</v>
       </c>
@@ -8089,7 +8202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>0</v>
       </c>
@@ -8109,7 +8222,7 @@
         <v>267.43587924359724</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>0</v>
       </c>
@@ -8129,7 +8242,7 @@
         <v>56526.011835248588</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>0</v>
       </c>
@@ -8149,7 +8262,7 @@
         <v>463.45305871164976</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>0</v>
       </c>
@@ -8169,7 +8282,7 @@
         <v>27874.511445243494</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>0</v>
       </c>
@@ -8189,7 +8302,7 @@
         <v>878.59028798771203</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>0</v>
       </c>
@@ -8209,7 +8322,7 @@
         <v>630.18209092198731</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1</v>
       </c>
@@ -8229,7 +8342,7 @@
         <v>854.4589026037296</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1</v>
       </c>
@@ -8249,7 +8362,7 @@
         <v>48279.520538097357</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1</v>
       </c>
@@ -8269,7 +8382,7 @@
         <v>536.12079492917758</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1</v>
       </c>
@@ -8289,7 +8402,7 @@
         <v>11202.721974433744</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1</v>
       </c>
@@ -8309,7 +8422,7 @@
         <v>1600.571651511651</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1</v>
       </c>
@@ -8329,7 +8442,7 @@
         <v>408.05443134751937</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>0</v>
       </c>
@@ -8349,7 +8462,7 @@
         <v>5758.6550649069704</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>0</v>
       </c>
@@ -8369,7 +8482,7 @@
         <v>343982.82533041184</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>0</v>
       </c>
@@ -8389,7 +8502,7 @@
         <v>737.0548350596174</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>0</v>
       </c>
@@ -8409,7 +8522,7 @@
         <v>120072.45627228917</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>0</v>
       </c>
@@ -8429,7 +8542,7 @@
         <v>13843.037557044545</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>0</v>
       </c>
@@ -8449,7 +8562,7 @@
         <v>12171.013007004076</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1</v>
       </c>
@@ -8469,7 +8582,7 @@
         <v>11566.466898396007</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1</v>
       </c>
@@ -8489,7 +8602,7 @@
         <v>384798.11018056411</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1</v>
       </c>
@@ -8509,7 +8622,7 @@
         <v>423.97983570891063</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1</v>
       </c>
@@ -8529,7 +8642,7 @@
         <v>24436.136638274598</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1</v>
       </c>
@@ -8549,7 +8662,7 @@
         <v>20229.738874248782</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1</v>
       </c>
@@ -8569,7 +8682,7 @@
         <v>105.20833333333333</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>0</v>
       </c>
@@ -8589,7 +8702,7 @@
         <v>1088.4861178645167</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>0</v>
       </c>
@@ -8609,7 +8722,7 @@
         <v>126501.60780726728</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>0</v>
       </c>
@@ -8629,7 +8742,7 @@
         <v>78.04826209910479</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>0</v>
       </c>
@@ -8649,7 +8762,7 @@
         <v>122779.14381609079</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>0</v>
       </c>
@@ -8669,7 +8782,7 @@
         <v>64578.262760776131</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>0</v>
       </c>
@@ -8689,7 +8802,7 @@
         <v>6319.2388303249427</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>1</v>
       </c>
@@ -8709,7 +8822,7 @@
         <v>3595.342050787694</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>1</v>
       </c>
@@ -8729,7 +8842,7 @@
         <v>173741.18614299764</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>1</v>
       </c>
@@ -8749,7 +8862,7 @@
         <v>1522.8386515933521</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>1</v>
       </c>
@@ -8769,7 +8882,7 @@
         <v>51956.657237056352</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1</v>
       </c>
@@ -8789,7 +8902,7 @@
         <v>18737.624927610977</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1</v>
       </c>
@@ -8809,7 +8922,7 @@
         <v>13050.928794461855</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>0</v>
       </c>
@@ -8829,7 +8942,7 @@
         <v>37.865916770229099</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>0</v>
       </c>
@@ -8849,7 +8962,7 @@
         <v>34131.279616220898</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>0</v>
       </c>
@@ -8869,7 +8982,7 @@
         <v>159.9078431372549</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>0</v>
       </c>
@@ -8889,7 +9002,7 @@
         <v>128858.98972994363</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>0</v>
       </c>
@@ -8909,7 +9022,7 @@
         <v>11377.629717877981</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>0</v>
       </c>
@@ -8929,7 +9042,7 @@
         <v>6951.2437495299573</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1</v>
       </c>
@@ -8949,7 +9062,7 @@
         <v>888.88973017092758</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1</v>
       </c>
@@ -8969,7 +9082,7 @@
         <v>83025.06401897734</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>1</v>
       </c>
@@ -8989,7 +9102,7 @@
         <v>159.9078431372549</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>1</v>
       </c>
@@ -9009,7 +9122,7 @@
         <v>100792.29990130023</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>1</v>
       </c>
@@ -9029,7 +9142,7 @@
         <v>8418.0479182590552</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>1</v>
       </c>
@@ -9049,7 +9162,7 @@
         <v>4849.432879890971</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>0</v>
       </c>
@@ -9069,7 +9182,7 @@
         <v>2375.5225314103268</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>0</v>
       </c>
@@ -9089,7 +9202,7 @@
         <v>13314.410620878485</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>0</v>
       </c>
@@ -9109,7 +9222,7 @@
         <v>161.23305407106329</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>0</v>
       </c>
@@ -9129,7 +9242,7 @@
         <v>8107.4130462586536</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>0</v>
       </c>
@@ -9149,7 +9262,7 @@
         <v>744.53374856419714</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>0</v>
       </c>
@@ -9169,7 +9282,7 @@
         <v>1877.0261082130769</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>1</v>
       </c>
@@ -9189,7 +9302,7 @@
         <v>7037.5092397285734</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>1</v>
       </c>
@@ -9209,7 +9322,7 @@
         <v>31240.045708558082</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>1</v>
       </c>
@@ -9229,7 +9342,7 @@
         <v>488.16420819668537</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>1</v>
       </c>
@@ -9249,7 +9362,7 @@
         <v>17264.630476864219</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>1</v>
       </c>
@@ -9269,7 +9382,7 @@
         <v>1705.394114801843</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>1</v>
       </c>
@@ -9289,7 +9402,7 @@
         <v>3966.0461060304438</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>0</v>
       </c>
@@ -9309,7 +9422,7 @@
         <v>12174.192289506929</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>0</v>
       </c>
@@ -9329,7 +9442,7 @@
         <v>125580.76355003059</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>0</v>
       </c>
@@ -9349,7 +9462,7 @@
         <v>989.62177729770337</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>0</v>
       </c>
@@ -9369,7 +9482,7 @@
         <v>48348.710629866677</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>0</v>
       </c>
@@ -9389,7 +9502,7 @@
         <v>4084.8126965494312</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>0</v>
       </c>
@@ -9409,7 +9522,7 @@
         <v>587.15497686075662</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>1</v>
       </c>
@@ -9429,7 +9542,7 @@
         <v>31064.95304772193</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1</v>
       </c>
@@ -9449,7 +9562,7 @@
         <v>304185.58830703568</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1</v>
       </c>
@@ -9469,7 +9582,7 @@
         <v>2297.6848556453083</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>1</v>
       </c>
@@ -9489,7 +9602,7 @@
         <v>114743.90713409614</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>1</v>
       </c>
@@ -9509,7 +9622,7 @@
         <v>9793.6787316956743</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>1</v>
       </c>
@@ -9529,7 +9642,7 @@
         <v>996.27402499941854</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>0</v>
       </c>
@@ -9549,7 +9662,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>0</v>
       </c>
@@ -9569,7 +9682,7 @@
         <v>434788</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>0</v>
       </c>
@@ -9589,7 +9702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>0</v>
       </c>
@@ -9609,7 +9722,7 @@
         <v>110379</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>0</v>
       </c>
@@ -9629,7 +9742,7 @@
         <v>29008</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>0</v>
       </c>
@@ -9649,7 +9762,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>1</v>
       </c>
@@ -9669,7 +9782,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>1</v>
       </c>
@@ -9689,7 +9802,7 @@
         <v>546481</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>1</v>
       </c>
@@ -9709,7 +9822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1</v>
       </c>
@@ -9729,7 +9842,7 @@
         <v>143852</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1</v>
       </c>
@@ -9749,7 +9862,7 @@
         <v>35293</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1</v>
       </c>
@@ -9769,7 +9882,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>0</v>
       </c>
@@ -9789,7 +9902,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>0</v>
       </c>
@@ -9809,7 +9922,7 @@
         <v>27422</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>0</v>
       </c>
@@ -9829,7 +9942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>0</v>
       </c>
@@ -9849,7 +9962,7 @@
         <v>304026</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>0</v>
       </c>
@@ -9869,7 +9982,7 @@
         <v>8058</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>0</v>
       </c>
@@ -9889,7 +10002,7 @@
         <v>6152</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>1</v>
       </c>
@@ -9909,7 +10022,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>1</v>
       </c>
@@ -9929,7 +10042,7 @@
         <v>23425</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>1</v>
       </c>
@@ -9949,7 +10062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>1</v>
       </c>
@@ -9969,7 +10082,7 @@
         <v>256851</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>1</v>
       </c>
@@ -9989,7 +10102,7 @@
         <v>6129</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>1</v>
       </c>
@@ -10009,7 +10122,7 @@
         <v>5237</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>0</v>
       </c>
@@ -10029,7 +10142,7 @@
         <v>320.12334474856408</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>0</v>
       </c>
@@ -10049,7 +10162,7 @@
         <v>4190.0733451876249</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>0</v>
       </c>
@@ -10069,7 +10182,7 @@
         <v>2.6598227366122065</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>0</v>
       </c>
@@ -10089,7 +10202,7 @@
         <v>28135.46529729183</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>0</v>
       </c>
@@ -10109,7 +10222,7 @@
         <v>1604.2846950408111</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>0</v>
       </c>
@@ -10129,7 +10242,7 @@
         <v>1700.3019196176208</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>1</v>
       </c>
@@ -10149,7 +10262,7 @@
         <v>3710.6918094376856</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>1</v>
       </c>
@@ -10169,7 +10282,7 @@
         <v>7293.6460274287647</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>1</v>
       </c>
@@ -10189,7 +10302,7 @@
         <v>173.17766410218272</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>1</v>
       </c>
@@ -10209,7 +10322,7 @@
         <v>41595.196467763177</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>1</v>
       </c>
@@ -10229,7 +10342,7 @@
         <v>2687.9206006137606</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>1</v>
       </c>
@@ -10249,7 +10362,7 @@
         <v>2657.9824391124644</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>0</v>
       </c>
@@ -10269,7 +10382,7 @@
         <v>27.463522539895528</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>0</v>
       </c>
@@ -10289,7 +10402,7 @@
         <v>12926.513546338401</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>0</v>
       </c>
@@ -10309,7 +10422,7 @@
         <v>90.039542323119221</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>0</v>
       </c>
@@ -10329,7 +10442,7 @@
         <v>1279.8355572361547</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>0</v>
       </c>
@@ -10349,7 +10462,7 @@
         <v>464.23242685939118</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>0</v>
       </c>
@@ -10369,7 +10482,7 @@
         <v>483.15954937661502</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>1</v>
       </c>
@@ -10389,7 +10502,7 @@
         <v>430.84581628840334</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>1</v>
       </c>
@@ -10409,7 +10522,7 @@
         <v>56651.709652923884</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>1</v>
       </c>
@@ -10429,7 +10542,7 @@
         <v>182.85553332643661</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1</v>
       </c>
@@ -10449,7 +10562,7 @@
         <v>4958.0287471087076</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>1</v>
       </c>
@@ -10469,7 +10582,7 @@
         <v>2092.2901818100081</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>1</v>
       </c>
@@ -10489,7 +10602,7 @@
         <v>1945.6419013936636</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>0</v>
       </c>
@@ -10509,7 +10622,7 @@
         <v>219.85812792414865</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>0</v>
       </c>
@@ -10529,7 +10642,7 @@
         <v>5190.7219024765782</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>0</v>
       </c>
@@ -10549,7 +10662,7 @@
         <v>322.22488571016208</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>0</v>
       </c>
@@ -10569,7 +10682,7 @@
         <v>8376.4690552137799</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>0</v>
       </c>
@@ -10589,7 +10702,7 @@
         <v>297.46656254955121</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>0</v>
       </c>
@@ -10609,7 +10722,7 @@
         <v>456.3216727876063</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1</v>
       </c>
@@ -10629,7 +10742,7 @@
         <v>1511.4989249424671</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>1</v>
       </c>
@@ -10649,7 +10762,7 @@
         <v>13939.667997786024</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>1</v>
       </c>
@@ -10669,7 +10782,7 @@
         <v>97.7515532016116</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1</v>
       </c>
@@ -10689,7 +10802,7 @@
         <v>22497.3516146287</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1</v>
       </c>
@@ -10709,7 +10822,7 @@
         <v>789.04083825399016</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1</v>
       </c>
@@ -10729,7 +10842,7 @@
         <v>945.06473665722979</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>0</v>
       </c>
@@ -10749,7 +10862,7 @@
         <v>4423.1329779038497</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>0</v>
       </c>
@@ -10769,7 +10882,7 @@
         <v>21322.595090195682</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>0</v>
       </c>
@@ -10789,7 +10902,7 @@
         <v>730.97847335408187</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>0</v>
       </c>
@@ -10809,7 +10922,7 @@
         <v>905.88654638285652</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>0</v>
       </c>
@@ -10829,7 +10942,7 @@
         <v>5692.0590823662351</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>0</v>
       </c>
@@ -10849,7 +10962,7 @@
         <v>1087.2973667232466</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1</v>
       </c>
@@ -10869,7 +10982,7 @@
         <v>4587.1262828836261</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1</v>
       </c>
@@ -10889,7 +11002,7 @@
         <v>25319.601694749421</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1</v>
       </c>
@@ -10909,7 +11022,7 @@
         <v>762.24028918928434</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1</v>
       </c>
@@ -10929,7 +11042,7 @@
         <v>1107.2391135552243</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1</v>
       </c>
@@ -10949,7 +11062,7 @@
         <v>6509.3262988819642</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>1</v>
       </c>
@@ -10969,7 +11082,7 @@
         <v>1221.6130011606572</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>0</v>
       </c>
@@ -10989,7 +11102,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>0</v>
       </c>
@@ -11009,7 +11122,7 @@
         <v>30847</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>0</v>
       </c>
@@ -11029,7 +11142,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>0</v>
       </c>
@@ -11049,7 +11162,7 @@
         <v>48531</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>0</v>
       </c>
@@ -11069,7 +11182,7 @@
         <v>11731</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>0</v>
       </c>
@@ -11089,7 +11202,7 @@
         <v>20869</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1</v>
       </c>
@@ -11109,7 +11222,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1</v>
       </c>
@@ -11129,7 +11242,7 @@
         <v>19223</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>1</v>
       </c>
@@ -11149,7 +11262,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>1</v>
       </c>
@@ -11169,7 +11282,7 @@
         <v>28924</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>1</v>
       </c>
@@ -11189,7 +11302,7 @@
         <v>7147</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>1</v>
       </c>
@@ -11209,7 +11322,7 @@
         <v>12766</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>0</v>
       </c>
@@ -11229,7 +11342,7 @@
         <v>7122</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>0</v>
       </c>
@@ -11249,7 +11362,7 @@
         <v>31342</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>0</v>
       </c>
@@ -11269,7 +11382,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>0</v>
       </c>
@@ -11289,7 +11402,7 @@
         <v>44470</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>0</v>
       </c>
@@ -11309,7 +11422,7 @@
         <v>7748</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>0</v>
       </c>
@@ -11329,7 +11442,7 @@
         <v>19037</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1</v>
       </c>
@@ -11349,7 +11462,7 @@
         <v>14120</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1</v>
       </c>
@@ -11369,7 +11482,7 @@
         <v>196028</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1</v>
       </c>
@@ -11389,7 +11502,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1</v>
       </c>
@@ -11409,7 +11522,7 @@
         <v>16109</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1</v>
       </c>
@@ -11429,7 +11542,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1</v>
       </c>
@@ -11449,7 +11562,7 @@
         <v>4014</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>0</v>
       </c>
@@ -11469,7 +11582,7 @@
         <v>10665.942172708124</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>0</v>
       </c>
@@ -11489,7 +11602,7 @@
         <v>88632.614879000248</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>0</v>
       </c>
@@ -11509,7 +11622,7 @@
         <v>656.78902443721086</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>0</v>
       </c>
@@ -11529,7 +11642,7 @@
         <v>19037.916407582547</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>0</v>
       </c>
@@ -11549,7 +11662,7 @@
         <v>13689.402079198151</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>0</v>
       </c>
@@ -11569,7 +11682,7 @@
         <v>8911.7413828729368</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1</v>
       </c>
@@ -11589,7 +11702,7 @@
         <v>5404.3314340406623</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1</v>
       </c>
@@ -11609,7 +11722,7 @@
         <v>99288.921970025927</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1</v>
       </c>
@@ -11629,7 +11742,7 @@
         <v>608.48766081664644</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1</v>
       </c>
@@ -11649,7 +11762,7 @@
         <v>59457.966446357532</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1</v>
       </c>
@@ -11669,7 +11782,7 @@
         <v>9826.5450831799317</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>1</v>
       </c>
@@ -11687,6 +11800,2033 @@
       </c>
       <c r="F565">
         <v>4119.0040535643548</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A94BF84-AB01-45F2-8A1E-DD5B502642C6}">
+  <dimension ref="A1:L61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1972</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>43</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.91</v>
+      </c>
+      <c r="H2">
+        <v>0.05</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0.02</v>
+      </c>
+      <c r="L2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1973</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>99</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.66</v>
+      </c>
+      <c r="H3">
+        <v>0.31</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0.03</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1974</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>113</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H4">
+        <v>0.43</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1975</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>195</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.57425742574257421</v>
+      </c>
+      <c r="H5">
+        <v>0.40594059405940591</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="L5">
+        <v>9.9009900990099011E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1976</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>191</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.73195876288659789</v>
+      </c>
+      <c r="H6">
+        <v>0.26804123711340205</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1977</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>221</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.72</v>
+      </c>
+      <c r="H7">
+        <v>0.27</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0.01</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1978</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>214</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.19801980198019803</v>
+      </c>
+      <c r="H8">
+        <v>0.78217821782178221</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1.9801980198019802E-2</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1979</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>83</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.85</v>
+      </c>
+      <c r="H9">
+        <v>0.08</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1980</v>
+      </c>
+      <c r="B10">
+        <v>21000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>187</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.53921568627450989</v>
+      </c>
+      <c r="H10">
+        <v>0.44117647058823528</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1981</v>
+      </c>
+      <c r="B11">
+        <v>40000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>288</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.48484848484848486</v>
+      </c>
+      <c r="H11">
+        <v>0.51515151515151514</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1982</v>
+      </c>
+      <c r="B12">
+        <v>56000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>294</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.25</v>
+      </c>
+      <c r="H12">
+        <v>0.75</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1983</v>
+      </c>
+      <c r="B13">
+        <v>45000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>293</v>
+      </c>
+      <c r="F13">
+        <v>1.0101010101010102E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.32323232323232326</v>
+      </c>
+      <c r="H13">
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1984</v>
+      </c>
+      <c r="B14">
+        <v>61000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>159</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H14">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1.01010101010101E-2</v>
+      </c>
+      <c r="L14">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1985</v>
+      </c>
+      <c r="B15">
+        <v>16000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>82</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.13</v>
+      </c>
+      <c r="H15">
+        <v>0.87</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1986</v>
+      </c>
+      <c r="B16">
+        <v>3000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>122</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0.09</v>
+      </c>
+      <c r="H16">
+        <v>0.85</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0.03</v>
+      </c>
+      <c r="L16">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1987</v>
+      </c>
+      <c r="B17">
+        <v>26000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>446</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0.78</v>
+      </c>
+      <c r="H17">
+        <v>0.19</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0.02</v>
+      </c>
+      <c r="L17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1988</v>
+      </c>
+      <c r="B18">
+        <v>35000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>151</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0.3</v>
+      </c>
+      <c r="H18">
+        <v>0.69</v>
+      </c>
+      <c r="I18">
+        <v>0.01</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1989</v>
+      </c>
+      <c r="B19">
+        <v>36000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>309</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0.59</v>
+      </c>
+      <c r="H19">
+        <v>0.39</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0.01</v>
+      </c>
+      <c r="L19">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1990</v>
+      </c>
+      <c r="B20">
+        <v>32000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>312</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0.20202020202020204</v>
+      </c>
+      <c r="H20">
+        <v>0.79797979797979801</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1991</v>
+      </c>
+      <c r="B21">
+        <v>37000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>325</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0.71</v>
+      </c>
+      <c r="H21">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1992</v>
+      </c>
+      <c r="B22">
+        <v>35000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>312</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0.46</v>
+      </c>
+      <c r="H22">
+        <v>0.54</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1993</v>
+      </c>
+      <c r="B23">
+        <v>150000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>234</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0.16</v>
+      </c>
+      <c r="H23">
+        <v>0.84</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1994</v>
+      </c>
+      <c r="B24">
+        <v>18000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>254</v>
+      </c>
+      <c r="F24">
+        <v>0.09</v>
+      </c>
+      <c r="G24">
+        <v>0.68</v>
+      </c>
+      <c r="H24">
+        <v>0.2</v>
+      </c>
+      <c r="I24">
+        <v>0.03</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1995</v>
+      </c>
+      <c r="B25">
+        <v>4000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <v>70</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0.16</v>
+      </c>
+      <c r="H25">
+        <v>0.82</v>
+      </c>
+      <c r="I25">
+        <v>0.02</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1996</v>
+      </c>
+      <c r="B26">
+        <v>56000</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>85</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0.86</v>
+      </c>
+      <c r="H26">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1996</v>
+      </c>
+      <c r="B27">
+        <v>56000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>168</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0.89</v>
+      </c>
+      <c r="H27">
+        <v>0.11</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1997</v>
+      </c>
+      <c r="B28">
+        <v>49000</v>
+      </c>
+      <c r="E28">
+        <v>97</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="H28">
+        <v>0.81818181818181812</v>
+      </c>
+      <c r="I28">
+        <v>2.02020202020202E-2</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>5.0505050505050504E-2</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1998</v>
+      </c>
+      <c r="B29">
+        <v>82000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>111</v>
+      </c>
+      <c r="F29">
+        <v>0.01</v>
+      </c>
+      <c r="G29">
+        <v>0.22</v>
+      </c>
+      <c r="H29">
+        <v>0.7</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0.01</v>
+      </c>
+      <c r="L29">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1998</v>
+      </c>
+      <c r="B30">
+        <v>82000</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30">
+        <v>253</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="H30">
+        <v>0.95959595959595956</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1.0101010101010102E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1999</v>
+      </c>
+      <c r="B31">
+        <v>12000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>33</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0.19801980198019803</v>
+      </c>
+      <c r="H31">
+        <v>0.65346534653465349</v>
+      </c>
+      <c r="I31">
+        <v>8.9108910891089105E-2</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>5.9405940594059403E-2</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2000</v>
+      </c>
+      <c r="B32">
+        <v>23000</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>247</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0.92</v>
+      </c>
+      <c r="H32">
+        <v>0.08</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2001</v>
+      </c>
+      <c r="B33">
+        <v>11000</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>95</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H33">
+        <v>0.64</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0.02</v>
+      </c>
+      <c r="L33">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2001</v>
+      </c>
+      <c r="B34">
+        <v>11000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>135</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0.28712871287128711</v>
+      </c>
+      <c r="H34">
+        <v>0.69306930693069302</v>
+      </c>
+      <c r="I34">
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>9.9009900990099011E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2002</v>
+      </c>
+      <c r="B35">
+        <v>18000</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>137</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0.29702970297029702</v>
+      </c>
+      <c r="H35">
+        <v>0.60396039603960394</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="L35">
+        <v>8.9108910891089105E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2003</v>
+      </c>
+      <c r="B36">
+        <v>3000</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2004</v>
+      </c>
+      <c r="B37">
+        <v>3000</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2005</v>
+      </c>
+      <c r="B38">
+        <v>2000</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2006</v>
+      </c>
+      <c r="B39">
+        <v>3000</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2007</v>
+      </c>
+      <c r="B40">
+        <v>12000</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40">
+        <v>53</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>5.9405940594059403E-2</v>
+      </c>
+      <c r="H40">
+        <v>0.86138613861386137</v>
+      </c>
+      <c r="I40">
+        <v>1.9801980198019802E-2</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>5.9405940594059403E-2</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2007</v>
+      </c>
+      <c r="B41">
+        <v>12000</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41">
+        <v>41</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0.02</v>
+      </c>
+      <c r="H41">
+        <v>0.93</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0.05</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2008</v>
+      </c>
+      <c r="B42">
+        <v>11000</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42">
+        <v>52</v>
+      </c>
+      <c r="F42">
+        <v>0.06</v>
+      </c>
+      <c r="G42">
+        <v>0.66</v>
+      </c>
+      <c r="H42">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2009</v>
+      </c>
+      <c r="B43">
+        <v>30000</v>
+      </c>
+      <c r="D43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43">
+        <v>93</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H43">
+        <v>0.44</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2009</v>
+      </c>
+      <c r="B44">
+        <v>30000</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44">
+        <v>92</v>
+      </c>
+      <c r="F44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G44">
+        <v>0.39</v>
+      </c>
+      <c r="H44">
+        <v>0.53</v>
+      </c>
+      <c r="I44">
+        <v>0.01</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2009</v>
+      </c>
+      <c r="B45">
+        <v>30000</v>
+      </c>
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45">
+        <v>118</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0.62</v>
+      </c>
+      <c r="H45">
+        <v>0.37</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2010</v>
+      </c>
+      <c r="B46">
+        <v>30000</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46">
+        <v>67</v>
+      </c>
+      <c r="F46">
+        <v>1.0101010101010102E-2</v>
+      </c>
+      <c r="G46">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="H46">
+        <v>0.10101010101010102</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2011</v>
+      </c>
+      <c r="B47">
+        <v>20423</v>
+      </c>
+      <c r="C47" s="2">
+        <v>6965</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47">
+        <v>37</v>
+      </c>
+      <c r="F47">
+        <v>0.03</v>
+      </c>
+      <c r="G47">
+        <v>0.05</v>
+      </c>
+      <c r="H47">
+        <v>0.92</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2011</v>
+      </c>
+      <c r="B48">
+        <v>20423</v>
+      </c>
+      <c r="C48" s="2">
+        <v>6965</v>
+      </c>
+      <c r="D48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48">
+        <v>25</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0.24</v>
+      </c>
+      <c r="H48">
+        <v>0.76</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2012</v>
+      </c>
+      <c r="B49">
+        <v>17133</v>
+      </c>
+      <c r="C49">
+        <v>5942</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49">
+        <v>47</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0.62</v>
+      </c>
+      <c r="H49">
+        <v>0.34</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0.04</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2013</v>
+      </c>
+      <c r="B50">
+        <v>12500</v>
+      </c>
+      <c r="C50">
+        <v>1125</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50">
+        <v>36</v>
+      </c>
+      <c r="F50">
+        <v>0.03</v>
+      </c>
+      <c r="G50">
+        <v>0.67</v>
+      </c>
+      <c r="H50">
+        <v>0.11</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0.08</v>
+      </c>
+      <c r="L50">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2014</v>
+      </c>
+      <c r="B51">
+        <v>11837</v>
+      </c>
+      <c r="C51">
+        <v>21656</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51">
+        <v>76</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0.3</v>
+      </c>
+      <c r="H51">
+        <v>0.7</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2015</v>
+      </c>
+      <c r="B52">
+        <v>6400</v>
+      </c>
+      <c r="C52">
+        <v>5192</v>
+      </c>
+      <c r="D52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2016</v>
+      </c>
+      <c r="B53">
+        <v>10700</v>
+      </c>
+      <c r="C53">
+        <v>23111</v>
+      </c>
+      <c r="D53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53">
+        <v>60</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H53">
+        <v>0.93</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2016</v>
+      </c>
+      <c r="B54">
+        <v>10700</v>
+      </c>
+      <c r="C54">
+        <v>23111</v>
+      </c>
+      <c r="D54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54">
+        <v>59</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>6.9306930693069313E-2</v>
+      </c>
+      <c r="H54">
+        <v>0.91089108910891092</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1.9801980198019802E-2</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2017</v>
+      </c>
+      <c r="B55">
+        <v>22704</v>
+      </c>
+      <c r="C55">
+        <v>3217</v>
+      </c>
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55">
+        <v>44</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0.59</v>
+      </c>
+      <c r="H55">
+        <v>0.36</v>
+      </c>
+      <c r="I55">
+        <v>0.05</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2018</v>
+      </c>
+      <c r="B56">
+        <v>12203</v>
+      </c>
+      <c r="C56">
+        <v>626</v>
+      </c>
+      <c r="D56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56">
+        <v>28</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0.11</v>
+      </c>
+      <c r="H56">
+        <v>0.89</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2019</v>
+      </c>
+      <c r="B57">
+        <v>13549</v>
+      </c>
+      <c r="C57">
+        <v>154</v>
+      </c>
+      <c r="D57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2020</v>
+      </c>
+      <c r="B58">
+        <v>4589</v>
+      </c>
+      <c r="C58">
+        <v>443</v>
+      </c>
+      <c r="D58" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2021</v>
+      </c>
+      <c r="B59">
+        <v>14520</v>
+      </c>
+      <c r="C59">
+        <v>4359</v>
+      </c>
+      <c r="D59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59">
+        <v>7</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2022</v>
+      </c>
+      <c r="B60">
+        <v>18646</v>
+      </c>
+      <c r="C60">
+        <v>7731</v>
+      </c>
+      <c r="D60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60">
+        <v>67</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0.35820895522388058</v>
+      </c>
+      <c r="H60">
+        <v>0.62686567164179108</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1.4925373134328358E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2023</v>
+      </c>
+      <c r="B61">
+        <v>13113</v>
+      </c>
+      <c r="C61">
+        <v>8196</v>
+      </c>
+      <c r="D61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61">
+        <v>151</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0.19867549668874171</v>
+      </c>
+      <c r="H61">
+        <v>0.7814569536423841</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>6.6225165562913907E-3</v>
+      </c>
+      <c r="L61">
+        <v>1.3245033112582781E-2</v>
       </c>
     </row>
   </sheetData>

--- a/1. data/return by age time series.xlsx
+++ b/1. data/return by age time series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brownn\Documents\WCVI\Barkley-Sk-CSAS\1. data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB61B266-A4A9-4416-8D3D-E20920168B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D11B4A1-9F96-4C56-BDA3-0D33DB2AB917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="0" windowWidth="15375" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Somass" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="37">
   <si>
     <t>GCL</t>
   </si>
@@ -11809,10 +11809,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A94BF84-AB01-45F2-8A1E-DD5B502642C6}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13700,6 +13700,30 @@
       <c r="D57" t="s">
         <v>34</v>
       </c>
+      <c r="E57">
+        <v>16</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -13714,6 +13738,9 @@
       <c r="D58" t="s">
         <v>34</v>
       </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -13793,40 +13820,116 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
+        <v>2022</v>
+      </c>
+      <c r="B61">
+        <v>18646</v>
+      </c>
+      <c r="C61">
+        <v>7731</v>
+      </c>
+      <c r="D61" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61">
+        <v>15</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H61">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>2023</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>13113</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <v>8196</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>36</v>
       </c>
-      <c r="E61">
+      <c r="E62">
         <v>151</v>
       </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
         <v>0.19867549668874171</v>
       </c>
-      <c r="H61">
+      <c r="H62">
         <v>0.7814569536423841</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
         <v>6.6225165562913907E-3</v>
       </c>
-      <c r="L61">
+      <c r="L62">
         <v>1.3245033112582781E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2023</v>
+      </c>
+      <c r="B63">
+        <v>13113</v>
+      </c>
+      <c r="C63">
+        <v>8196</v>
+      </c>
+      <c r="D63" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63">
+        <v>7</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H63">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/1. data/return by age time series.xlsx
+++ b/1. data/return by age time series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brownn\Documents\WCVI\Barkley-Sk-CSAS\1. data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D2D5F5-3C4F-4E60-A733-5076F5733883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0DAE0A-5A1E-485E-89C6-BA3AF7C7CFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Somass" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="41">
   <si>
     <t>GCL</t>
   </si>
@@ -154,159 +154,6 @@
   </si>
   <si>
     <t>data from Hyatt and Steer 1987</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 1988</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 1989</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 1990</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 1991</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 1992</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 1993</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 1994</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 1995</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 1996</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 1997</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 1998</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 1999</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2000</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2001</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2002</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2003</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2004</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2005</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2006</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2007</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2008</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2009</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2010</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2011</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2012</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2013</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2014</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2015</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2016</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2017</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2018</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2019</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2020</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2021</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2022</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2023</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2024</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2025</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2026</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2027</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2028</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2029</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2030</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2031</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2032</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2033</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2034</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2035</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2036</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2037</t>
-  </si>
-  <si>
-    <t>data from Hyatt and Steer 2038</t>
   </si>
   <si>
     <t>data from Starr, P. J., A. T. Charles and M. A. Henderson 1984. Reconstruction of British Columbia sockeye salmon (Oncorhynchus nerka) stocks: 1970-1982. Can. MS. Rep. Fish. Aquat. Sci</t>
@@ -664,7 +511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F565"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -11982,8 +11829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A94BF84-AB01-45F2-8A1E-DD5B502642C6}">
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O104" sqref="O104"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12048,7 +11895,7 @@
         <v>8000</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -12059,7 +11906,7 @@
         <v>38000</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -12070,7 +11917,7 @@
         <v>1000</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -12081,7 +11928,7 @@
         <v>70000</v>
       </c>
       <c r="M6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -12092,7 +11939,7 @@
         <v>90000</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -12103,7 +11950,7 @@
         <v>120000</v>
       </c>
       <c r="M8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -12114,7 +11961,7 @@
         <v>80000</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -12124,8 +11971,11 @@
       <c r="B10">
         <v>65000</v>
       </c>
+      <c r="C10">
+        <v>35412</v>
+      </c>
       <c r="M10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -12135,8 +11985,11 @@
       <c r="B11">
         <v>70000</v>
       </c>
+      <c r="C11">
+        <v>25669</v>
+      </c>
       <c r="M11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -12146,8 +11999,11 @@
       <c r="B12">
         <v>70000</v>
       </c>
+      <c r="C12">
+        <v>15000</v>
+      </c>
       <c r="M12" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -12158,7 +12014,7 @@
         <v>135000</v>
       </c>
       <c r="M13" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -12168,8 +12024,11 @@
       <c r="B14">
         <v>40000</v>
       </c>
+      <c r="C14">
+        <v>10600</v>
+      </c>
       <c r="M14" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -12179,8 +12038,11 @@
       <c r="B15">
         <v>50000</v>
       </c>
+      <c r="C15">
+        <v>20260</v>
+      </c>
       <c r="M15" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -12190,8 +12052,11 @@
       <c r="B16">
         <v>35000</v>
       </c>
+      <c r="C16">
+        <v>28000</v>
+      </c>
       <c r="M16" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -12201,8 +12066,11 @@
       <c r="B17">
         <v>7500</v>
       </c>
+      <c r="C17">
+        <v>20500</v>
+      </c>
       <c r="M17" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -12212,8 +12080,11 @@
       <c r="B18">
         <v>15000</v>
       </c>
+      <c r="C18">
+        <v>6500</v>
+      </c>
       <c r="M18" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -12224,7 +12095,7 @@
         <v>45000</v>
       </c>
       <c r="M19" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -12235,7 +12106,7 @@
         <v>2000</v>
       </c>
       <c r="M20" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -12246,7 +12117,7 @@
         <v>38000</v>
       </c>
       <c r="M21" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -12257,7 +12128,7 @@
         <v>10000</v>
       </c>
       <c r="M22" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -12268,7 +12139,7 @@
         <v>14000</v>
       </c>
       <c r="M23" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -12279,7 +12150,7 @@
         <v>60000</v>
       </c>
       <c r="M24" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -12290,7 +12161,7 @@
         <v>2000</v>
       </c>
       <c r="M25" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -12301,7 +12172,7 @@
         <v>7000</v>
       </c>
       <c r="M26" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -12312,7 +12183,7 @@
         <v>5000</v>
       </c>
       <c r="M27" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -12323,7 +12194,7 @@
         <v>5000</v>
       </c>
       <c r="M28" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -12334,7 +12205,7 @@
         <v>14000</v>
       </c>
       <c r="M29" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -12345,7 +12216,7 @@
         <v>14000</v>
       </c>
       <c r="M30" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -12356,7 +12227,7 @@
         <v>7000</v>
       </c>
       <c r="M31" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -12367,7 +12238,7 @@
         <v>7000</v>
       </c>
       <c r="M32" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -12378,7 +12249,7 @@
         <v>30000</v>
       </c>
       <c r="M33" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -12389,7 +12260,7 @@
         <v>14000</v>
       </c>
       <c r="M34" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -12400,7 +12271,7 @@
         <v>14000</v>
       </c>
       <c r="M35" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -12411,7 +12282,7 @@
         <v>14000</v>
       </c>
       <c r="M36" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -12422,7 +12293,7 @@
         <v>14000</v>
       </c>
       <c r="M37" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -12433,7 +12304,7 @@
         <v>30000</v>
       </c>
       <c r="M38" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -12444,7 +12315,7 @@
         <v>14000</v>
       </c>
       <c r="M39" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -12455,7 +12326,7 @@
         <v>7000</v>
       </c>
       <c r="M40" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -12466,7 +12337,7 @@
         <v>7000</v>
       </c>
       <c r="M41" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -12477,7 +12348,7 @@
         <v>14000</v>
       </c>
       <c r="M42" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -12488,7 +12359,7 @@
         <v>14000</v>
       </c>
       <c r="M43" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -12499,7 +12370,7 @@
         <v>10000</v>
       </c>
       <c r="M44" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -12510,7 +12381,7 @@
         <v>14000</v>
       </c>
       <c r="M45" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -12521,7 +12392,7 @@
         <v>30000</v>
       </c>
       <c r="M46" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -12532,7 +12403,7 @@
         <v>18000</v>
       </c>
       <c r="M47" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -12543,7 +12414,7 @@
         <v>30000</v>
       </c>
       <c r="M48" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -12554,7 +12425,7 @@
         <v>18000</v>
       </c>
       <c r="M49" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -12565,7 +12436,7 @@
         <v>80000</v>
       </c>
       <c r="M50" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -12576,7 +12447,7 @@
         <v>80000</v>
       </c>
       <c r="M51" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -12587,7 +12458,7 @@
         <v>30000</v>
       </c>
       <c r="M52" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -12598,7 +12469,7 @@
         <v>18000</v>
       </c>
       <c r="M53" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -12612,7 +12483,7 @@
         <v>5317</v>
       </c>
       <c r="M54" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -12626,7 +12497,7 @@
         <v>1022</v>
       </c>
       <c r="M55" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -12667,7 +12538,7 @@
         <v>0.02</v>
       </c>
       <c r="M56" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -12708,7 +12579,7 @@
         <v>0</v>
       </c>
       <c r="M57" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -12749,7 +12620,7 @@
         <v>0</v>
       </c>
       <c r="M58" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -12790,7 +12661,7 @@
         <v>9.9009900990099011E-3</v>
       </c>
       <c r="M59" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -12831,7 +12702,7 @@
         <v>0</v>
       </c>
       <c r="M60" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -12872,7 +12743,7 @@
         <v>0</v>
       </c>
       <c r="M61" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -12913,7 +12784,7 @@
         <v>0</v>
       </c>
       <c r="M62" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
@@ -12954,7 +12825,7 @@
         <v>0</v>
       </c>
       <c r="M63" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -12995,7 +12866,7 @@
         <v>0</v>
       </c>
       <c r="M64" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -13036,7 +12907,7 @@
         <v>0</v>
       </c>
       <c r="M65" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -13077,7 +12948,7 @@
         <v>0</v>
       </c>
       <c r="M66" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
@@ -13118,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="M67" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
@@ -13159,7 +13030,7 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="M68" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -13200,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="M69" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
@@ -13241,7 +13112,7 @@
         <v>0.03</v>
       </c>
       <c r="M70" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
@@ -13282,7 +13153,7 @@
         <v>0.01</v>
       </c>
       <c r="M71" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -13323,7 +13194,7 @@
         <v>0</v>
       </c>
       <c r="M72" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -13364,7 +13235,7 @@
         <v>0.01</v>
       </c>
       <c r="M73" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -13405,7 +13276,7 @@
         <v>0</v>
       </c>
       <c r="M74" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -13446,7 +13317,7 @@
         <v>0</v>
       </c>
       <c r="M75" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
@@ -13487,7 +13358,7 @@
         <v>0</v>
       </c>
       <c r="M76" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -13528,7 +13399,7 @@
         <v>0</v>
       </c>
       <c r="M77" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -13569,7 +13440,7 @@
         <v>0</v>
       </c>
       <c r="M78" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
@@ -13610,7 +13481,7 @@
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
@@ -13651,7 +13522,7 @@
         <v>0</v>
       </c>
       <c r="M80" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
@@ -13692,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="M81" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
@@ -13730,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="M82" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
@@ -13771,7 +13642,7 @@
         <v>0.06</v>
       </c>
       <c r="M83" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
@@ -13812,7 +13683,7 @@
         <v>1.0101010101010102E-2</v>
       </c>
       <c r="M84" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
@@ -13853,7 +13724,7 @@
         <v>0</v>
       </c>
       <c r="M85" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
@@ -13894,7 +13765,7 @@
         <v>0</v>
       </c>
       <c r="M86" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
@@ -13935,7 +13806,7 @@
         <v>0.06</v>
       </c>
       <c r="M87" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
@@ -13976,7 +13847,7 @@
         <v>9.9009900990099011E-3</v>
       </c>
       <c r="M88" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
@@ -14017,7 +13888,7 @@
         <v>8.9108910891089105E-2</v>
       </c>
       <c r="M89" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
@@ -14034,7 +13905,7 @@
         <v>0</v>
       </c>
       <c r="M90" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
@@ -14051,7 +13922,7 @@
         <v>0</v>
       </c>
       <c r="M91" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
@@ -14068,7 +13939,7 @@
         <v>0</v>
       </c>
       <c r="M92" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
@@ -14085,7 +13956,7 @@
         <v>0</v>
       </c>
       <c r="M93" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
@@ -14126,7 +13997,7 @@
         <v>0</v>
       </c>
       <c r="M94" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
@@ -14167,7 +14038,7 @@
         <v>0</v>
       </c>
       <c r="M95" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
@@ -14205,7 +14076,7 @@
         <v>0</v>
       </c>
       <c r="M96" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
